--- a/class_combs.xlsx
+++ b/class_combs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erelpapo/Desktop/ERIK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbugrahanc/Documents/ClassScheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB456250-2B66-C348-B998-85E19F0E3BFA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F606BF76-B25D-8342-A152-66E98556116B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="460" windowWidth="24640" windowHeight="15000" xr2:uid="{B40F5567-1B4A-D345-AC7D-78317160A272}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Physics</t>
   </si>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>Biology</t>
-  </si>
-  <si>
-    <t>ITGS</t>
-  </si>
-  <si>
-    <t>Pysc</t>
-  </si>
-  <si>
-    <t>20. YY</t>
-  </si>
-  <si>
-    <t>Art</t>
   </si>
   <si>
     <t>Chemistry</t>
@@ -406,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAE64DC-33FD-0045-8A98-1A6FBFB9B6A4}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C12" sqref="A5:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -419,7 +407,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -430,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -449,79 +437,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
